--- a/medicine/Psychotrope/Markus_Bière/Markus_Bière.xlsx
+++ b/medicine/Psychotrope/Markus_Bière/Markus_Bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Markus_Bi%C3%A8re</t>
+          <t>Markus_Bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Markus Bière est une marque de la Brasserie du Val de Drôme et produit des bières artisanales non filtrées et non pasteurisées brassées en France dans le village de Cléon-d'Andran en Drôme Provençale.
-Le symbole de la bière est un hippopotame, en référence à une légende selon laquelle un hippopotame se serait perdu dans le village et aurait été découvert par un certain Markus[1].
+Le symbole de la bière est un hippopotame, en référence à une légende selon laquelle un hippopotame se serait perdu dans le village et aurait été découvert par un certain Markus.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Markus_Bi%C3%A8re</t>
+          <t>Markus_Bière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs bières différentes :
 Markus Bière blonde ;
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Markus_Bi%C3%A8re</t>
+          <t>Markus_Bière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a reçu le prix du fourquet d'Argent pour sa bière « Prestige », ambrée, au salon de la bière à Saint-Nicolas-de-Port[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a reçu le prix du fourquet d'Argent pour sa bière « Prestige », ambrée, au salon de la bière à Saint-Nicolas-de-Port.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Markus_Bi%C3%A8re</t>
+          <t>Markus_Bière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,11 +600,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 2001, la brasserie a été reprise en 2015 par Olivier Gobert et Valérie Desbos[3].
-C'est en 2004 qu'elle s'est installée à Saou[4]., avant de déménager sur un nouveau site de production en Drôme provençale à Cléon-d'Andran en 2020.
-En 2016, elle fait partie des produits locaux commandés régulièrement par les supermarchés de la région[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 2001, la brasserie a été reprise en 2015 par Olivier Gobert et Valérie Desbos.
+C'est en 2004 qu'elle s'est installée à Saou., avant de déménager sur un nouveau site de production en Drôme provençale à Cléon-d'Andran en 2020.
+En 2016, elle fait partie des produits locaux commandés régulièrement par les supermarchés de la région.
 </t>
         </is>
       </c>
